--- a/src/borderou_template.xlsx
+++ b/src/borderou_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Python\Indexer_UI\generated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Python\Indexer_UI\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -49,7 +49,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="00"/>
+    <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -143,7 +143,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -485,7 +485,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
